--- a/svnupload/AAA.xlsx
+++ b/svnupload/AAA.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\新建文件夹 (4)\svnupload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" tabRatio="546" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="配置库目录结构" sheetId="3" r:id="rId1"/>
+    <sheet name="项目组成员及配置库权限" sheetId="2" r:id="rId2"/>
     <sheet name="项目组成员表" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -53,17 +53,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="127">
+  <si>
+    <t>版本库</t>
+  </si>
+  <si>
+    <t>一级目录</t>
+  </si>
+  <si>
+    <t>二级目录</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>trunk（线上）</t>
+  </si>
+  <si>
+    <t>dev（开发）</t>
+  </si>
+  <si>
+    <t>release（基线）</t>
+  </si>
+  <si>
+    <t>data（数据文件）</t>
+  </si>
+  <si>
+    <t>数据库脚本</t>
+  </si>
+  <si>
+    <t>初始化数据脚本</t>
+  </si>
+  <si>
+    <t>变更记录表</t>
+  </si>
+  <si>
+    <t>每次数据库脚本变化后要更新此表</t>
+  </si>
+  <si>
+    <t>数据库人员</t>
+  </si>
+  <si>
+    <t>sys-config(系统支持配置文件）</t>
+  </si>
+  <si>
+    <t>生产服务器系统配置文件：如keepalived,lvs,nginx的配置文件</t>
+  </si>
+  <si>
+    <t>系统技术支持人员</t>
+  </si>
+  <si>
+    <t>dep（第三方文件）</t>
+  </si>
+  <si>
+    <t>项目依赖的第三方的中间件、源程序等</t>
+  </si>
+  <si>
+    <t>立项管理</t>
+  </si>
+  <si>
+    <t>立项申请</t>
+  </si>
+  <si>
+    <t>立项申请单</t>
+  </si>
+  <si>
+    <t>项目经理提供</t>
+  </si>
+  <si>
+    <t>立项说明书</t>
+  </si>
+  <si>
+    <t>产品经理提供</t>
+  </si>
+  <si>
+    <t>产品定义书</t>
+  </si>
+  <si>
+    <t>项目计划</t>
+  </si>
+  <si>
+    <t>项目计划、项目过程定义</t>
+  </si>
+  <si>
+    <t>项目进度表</t>
+  </si>
+  <si>
+    <t>项目估算表等</t>
+  </si>
+  <si>
+    <t>包括时间、工作量等的估算</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>项目周报</t>
+  </si>
+  <si>
+    <t>项目问题反馈表</t>
+  </si>
+  <si>
+    <t>项目过程中重大问题的跟踪记录表</t>
+  </si>
+  <si>
+    <t>会议记录</t>
+  </si>
+  <si>
+    <t>技术会议、例会记录，评审会议</t>
+  </si>
+  <si>
+    <t>里程碑报告</t>
+  </si>
+  <si>
+    <t>里程碑报告等</t>
+  </si>
+  <si>
+    <t>风险管理表</t>
+  </si>
+  <si>
+    <t>风险类型，级别，风险状态，风险应对措施等</t>
+  </si>
+  <si>
+    <t>需求开发</t>
+  </si>
+  <si>
+    <t>原型</t>
+  </si>
+  <si>
+    <t>需求规格说明书、需求列表等需求文档</t>
+  </si>
+  <si>
+    <t>界面设计文档</t>
+  </si>
+  <si>
+    <t>需求管理</t>
+  </si>
+  <si>
+    <t>需求变更记录、变更跟踪表、变更评估记录等。</t>
+  </si>
+  <si>
+    <t>设计文档</t>
+  </si>
+  <si>
+    <t>系统设计</t>
+  </si>
+  <si>
+    <t>概要设计</t>
+  </si>
+  <si>
+    <t>详细设计</t>
+  </si>
+  <si>
+    <t>数据库设计说明书</t>
+  </si>
+  <si>
+    <t>接口设计说明书</t>
+  </si>
+  <si>
+    <t>研发设计资料，开发人员有权限</t>
+  </si>
+  <si>
+    <t>实现与测试</t>
+  </si>
+  <si>
+    <t>单元测试报告、集成联调等与研发编码过程相关的文档</t>
+  </si>
+  <si>
+    <t>开发人员有写权限</t>
+  </si>
+  <si>
+    <t>系统测试</t>
+  </si>
+  <si>
+    <t>系统测试计划</t>
+  </si>
+  <si>
+    <t>全面测试系统的功能、性能、易用性、稳定性、安全性、兼容性等</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>测试报告</t>
+  </si>
+  <si>
+    <t>针对不同的测试要求出具报告</t>
+  </si>
+  <si>
+    <t>测试相关文档</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>配置计划</t>
+  </si>
+  <si>
+    <t>配置管理计划、配置项标识</t>
+  </si>
+  <si>
+    <t>配置状态报告</t>
+  </si>
+  <si>
+    <t>配置审计、基线变更记录等配置管理相关资料</t>
+  </si>
+  <si>
+    <t>质量管理</t>
+  </si>
+  <si>
+    <t>质量保证计划</t>
+  </si>
+  <si>
+    <t>质量保证计划跟踪表</t>
+  </si>
+  <si>
+    <t>任务、时间、跟踪表</t>
+  </si>
+  <si>
+    <t>度量报告</t>
+  </si>
+  <si>
+    <t>里程牌审计报告</t>
+  </si>
+  <si>
+    <t>不符合项管理记录</t>
+  </si>
+  <si>
+    <t>对过程中产生的问题的解决进行跟踪</t>
+  </si>
+  <si>
+    <t>其它审计文档质量记录资料</t>
+  </si>
+  <si>
+    <t>上线验收</t>
+  </si>
+  <si>
+    <t>上线验收检查表</t>
+  </si>
+  <si>
+    <t>手册</t>
+  </si>
+  <si>
+    <t>用户使用说明</t>
+  </si>
+  <si>
+    <t>安装维护手册</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目角色权限表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>二级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>;R/W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>;N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     角色
+范围</t>
+  </si>
+  <si>
     <t>项目经理</t>
   </si>
   <si>
     <t>产品经理</t>
   </si>
   <si>
+    <t>开发负责人</t>
+  </si>
+  <si>
+    <t>开发人员</t>
+  </si>
+  <si>
     <t>测试人员</t>
   </si>
   <si>
@@ -71,6 +436,36 @@
   </si>
   <si>
     <t>配置管理人员</t>
+  </si>
+  <si>
+    <t>系统支持人员</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>sys-config</t>
   </si>
   <si>
     <r>
@@ -112,6 +507,12 @@
     <t>如果是外包必须标注</t>
   </si>
   <si>
+    <t>朱健</t>
+  </si>
+  <si>
+    <t>zhujian@sinoiov.com</t>
+  </si>
+  <si>
     <t>研发负责人</t>
   </si>
   <si>
@@ -127,43 +528,34 @@
     <t>test8</t>
   </si>
   <si>
-    <t>哈哈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>haha@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev220@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev120@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev80@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>testlead@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test80@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11180@xixi.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>test80@sinoiov.com</t>
+  </si>
+  <si>
+    <t>dev80@sinoiov.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev120@sinoiov.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev220@sinoiov.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11180@sinoiov.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>testlead@sinoiov</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +594,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,6 +663,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -238,7 +686,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +699,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -352,6 +812,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -360,12 +932,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +963,121 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -411,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -478,7 +1162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,7 +1197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,27 +1406,1386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="14.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27"/>
+      <c r="B2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="34"/>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5">
+      <c r="A20" s="27"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5">
+      <c r="A30" s="27"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5">
+      <c r="A31" s="27"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="27"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="27"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="30"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="30"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="30"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="30"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="30"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="30"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="30"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="30"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="30"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="30"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B48"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="11.25" style="9" customWidth="1"/>
+    <col min="6" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="14.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27">
+      <c r="A1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="46"/>
+      <c r="B6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="46"/>
+      <c r="B7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="45"/>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="47"/>
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="47"/>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="47"/>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="47"/>
+      <c r="B15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="47"/>
+      <c r="B16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="47"/>
+      <c r="B17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="47"/>
+      <c r="B18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="47"/>
+      <c r="B19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="47"/>
+      <c r="B20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="47"/>
+      <c r="B21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="47"/>
+      <c r="B22" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="47"/>
+      <c r="B23" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A23"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -750,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -764,76 +2807,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
+      <c r="A5" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -841,7 +2884,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -849,94 +2892,94 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
+      <c r="A10" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
+      <c r="C10" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
+      <c r="C12" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>21</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -944,18 +2987,18 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
+      <c r="C22" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>3</v>
+      <c r="A23" s="49" t="s">
+        <v>95</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -963,27 +3006,27 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
+      <c r="C25" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -991,7 +3034,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1000,7 +3043,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1014,18 +3057,17 @@
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2" tooltip="mailto:test80@sinoiov.com"/>
     <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
-    <hyperlink ref="C22" r:id="rId5"/>
-    <hyperlink ref="C24" r:id="rId6"/>
-    <hyperlink ref="C25" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C25" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId8"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>